--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf12-Tnfrsf12a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H2">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I2">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J2">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.173477128799711</v>
+        <v>8.571479333333334</v>
       </c>
       <c r="N2">
-        <v>8.173477128799711</v>
+        <v>25.714438</v>
       </c>
       <c r="O2">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="P2">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="Q2">
-        <v>48.03065737774395</v>
+        <v>51.23550914055956</v>
       </c>
       <c r="R2">
-        <v>48.03065737774395</v>
+        <v>461.119582265036</v>
       </c>
       <c r="S2">
-        <v>0.01966240918566023</v>
+        <v>0.01978160309816777</v>
       </c>
       <c r="T2">
-        <v>0.01966240918566023</v>
+        <v>0.01978160309816777</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H3">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I3">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J3">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.2000231660945</v>
+        <v>18.21511766666667</v>
       </c>
       <c r="N3">
-        <v>18.2000231660945</v>
+        <v>54.645353</v>
       </c>
       <c r="O3">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="P3">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="Q3">
-        <v>106.9506971369062</v>
+        <v>108.8797850888518</v>
       </c>
       <c r="R3">
-        <v>106.9506971369062</v>
+        <v>979.918065799666</v>
       </c>
       <c r="S3">
-        <v>0.04378262727613422</v>
+        <v>0.04203757765210624</v>
       </c>
       <c r="T3">
-        <v>0.04378262727613422</v>
+        <v>0.04203757765210622</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H4">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I4">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J4">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7638781504138</v>
+        <v>12.38338866666667</v>
       </c>
       <c r="N4">
-        <v>11.7638781504138</v>
+        <v>37.150166</v>
       </c>
       <c r="O4">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="P4">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="Q4">
-        <v>69.12930592111763</v>
+        <v>74.02097100727244</v>
       </c>
       <c r="R4">
-        <v>69.12930592111763</v>
+        <v>666.188739065452</v>
       </c>
       <c r="S4">
-        <v>0.02829960641703682</v>
+        <v>0.02857888003786227</v>
       </c>
       <c r="T4">
-        <v>0.02829960641703682</v>
+        <v>0.02857888003786226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H5">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I5">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J5">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.3251294513895</v>
+        <v>11.592928</v>
       </c>
       <c r="N5">
-        <v>11.3251294513895</v>
+        <v>34.778784</v>
       </c>
       <c r="O5">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="P5">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="Q5">
-        <v>66.55104111341251</v>
+        <v>69.29603927293867</v>
       </c>
       <c r="R5">
-        <v>66.55104111341251</v>
+        <v>623.664353456448</v>
       </c>
       <c r="S5">
-        <v>0.02724413683977518</v>
+        <v>0.02675462327136636</v>
       </c>
       <c r="T5">
-        <v>0.02724413683977518</v>
+        <v>0.02675462327136636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.87640445074535</v>
+        <v>5.977440666666666</v>
       </c>
       <c r="H6">
-        <v>5.87640445074535</v>
+        <v>17.932322</v>
       </c>
       <c r="I6">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="J6">
-        <v>0.1596236085899304</v>
+        <v>0.1582766024611428</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.8915132055474</v>
+        <v>17.819224</v>
       </c>
       <c r="N6">
-        <v>16.8915132055474</v>
+        <v>53.457672</v>
       </c>
       <c r="O6">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="P6">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="Q6">
-        <v>99.26136338090261</v>
+        <v>106.5133541860426</v>
       </c>
       <c r="R6">
-        <v>99.26136338090261</v>
+        <v>958.6201876743838</v>
       </c>
       <c r="S6">
-        <v>0.04063482887132391</v>
+        <v>0.0411239184016402</v>
       </c>
       <c r="T6">
-        <v>0.04063482887132391</v>
+        <v>0.0411239184016402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.8021709580976</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H7">
-        <v>4.8021709580976</v>
+        <v>14.438005</v>
       </c>
       <c r="I7">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J7">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.173477128799711</v>
+        <v>8.571479333333334</v>
       </c>
       <c r="N7">
-        <v>8.173477128799711</v>
+        <v>25.714438</v>
       </c>
       <c r="O7">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="P7">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="Q7">
-        <v>39.25043449459692</v>
+        <v>41.25168715735445</v>
       </c>
       <c r="R7">
-        <v>39.25043449459692</v>
+        <v>371.26518441619</v>
       </c>
       <c r="S7">
-        <v>0.01606803125091785</v>
+        <v>0.01592693263255934</v>
       </c>
       <c r="T7">
-        <v>0.01606803125091785</v>
+        <v>0.01592693263255934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.8021709580976</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H8">
-        <v>4.8021709580976</v>
+        <v>14.438005</v>
       </c>
       <c r="I8">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J8">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.2000231660945</v>
+        <v>18.21511766666667</v>
       </c>
       <c r="N8">
-        <v>18.2000231660945</v>
+        <v>54.645353</v>
       </c>
       <c r="O8">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="P8">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="Q8">
-        <v>87.39962268492253</v>
+        <v>87.66331998230723</v>
       </c>
       <c r="R8">
-        <v>87.39962268492253</v>
+        <v>788.969879840765</v>
       </c>
       <c r="S8">
-        <v>0.03577896363957653</v>
+        <v>0.03384607728597547</v>
       </c>
       <c r="T8">
-        <v>0.03577896363957653</v>
+        <v>0.03384607728597546</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.8021709580976</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H9">
-        <v>4.8021709580976</v>
+        <v>14.438005</v>
       </c>
       <c r="I9">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J9">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.7638781504138</v>
+        <v>12.38338866666667</v>
       </c>
       <c r="N9">
-        <v>11.7638781504138</v>
+        <v>37.150166</v>
       </c>
       <c r="O9">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="P9">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="Q9">
-        <v>56.49215400851606</v>
+        <v>59.59714249542556</v>
       </c>
       <c r="R9">
-        <v>56.49215400851606</v>
+        <v>536.37428245883</v>
       </c>
       <c r="S9">
-        <v>0.02312630949768093</v>
+        <v>0.02300996005319644</v>
       </c>
       <c r="T9">
-        <v>0.02312630949768093</v>
+        <v>0.02300996005319643</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.8021709580976</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H10">
-        <v>4.8021709580976</v>
+        <v>14.438005</v>
       </c>
       <c r="I10">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J10">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.3251294513895</v>
+        <v>11.592928</v>
       </c>
       <c r="N10">
-        <v>11.3251294513895</v>
+        <v>34.778784</v>
       </c>
       <c r="O10">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="P10">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="Q10">
-        <v>54.38520774815846</v>
+        <v>55.79291747621334</v>
       </c>
       <c r="R10">
-        <v>54.38520774815846</v>
+        <v>502.1362572859201</v>
       </c>
       <c r="S10">
-        <v>0.022263784565375</v>
+        <v>0.02154118047652189</v>
       </c>
       <c r="T10">
-        <v>0.022263784565375</v>
+        <v>0.02154118047652189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.8021709580976</v>
+        <v>4.812668333333334</v>
       </c>
       <c r="H11">
-        <v>4.8021709580976</v>
+        <v>14.438005</v>
       </c>
       <c r="I11">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="J11">
-        <v>0.1304436860706679</v>
+        <v>0.127434605385571</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.8915132055474</v>
+        <v>17.819224</v>
       </c>
       <c r="N11">
-        <v>16.8915132055474</v>
+        <v>53.457672</v>
       </c>
       <c r="O11">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="P11">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="Q11">
-        <v>81.11593415400182</v>
+        <v>85.75801506937333</v>
       </c>
       <c r="R11">
-        <v>81.11593415400182</v>
+        <v>771.8221356243599</v>
       </c>
       <c r="S11">
-        <v>0.0332065971171176</v>
+        <v>0.03311045493731784</v>
       </c>
       <c r="T11">
-        <v>0.0332065971171176</v>
+        <v>0.03311045493731784</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>17.2374429402082</v>
+        <v>17.30737</v>
       </c>
       <c r="H12">
-        <v>17.2374429402082</v>
+        <v>51.92211</v>
       </c>
       <c r="I12">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="J12">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.173477128799711</v>
+        <v>8.571479333333334</v>
       </c>
       <c r="N12">
-        <v>8.173477128799711</v>
+        <v>25.714438</v>
       </c>
       <c r="O12">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="P12">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="Q12">
-        <v>140.8898456307818</v>
+        <v>148.3497642693533</v>
       </c>
       <c r="R12">
-        <v>140.8898456307818</v>
+        <v>1335.14787842418</v>
       </c>
       <c r="S12">
-        <v>0.05767636643217345</v>
+        <v>0.05727660768300991</v>
       </c>
       <c r="T12">
-        <v>0.05767636643217345</v>
+        <v>0.0572766076830099</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>17.2374429402082</v>
+        <v>17.30737</v>
       </c>
       <c r="H13">
-        <v>17.2374429402082</v>
+        <v>51.92211</v>
       </c>
       <c r="I13">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="J13">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.2000231660945</v>
+        <v>18.21511766666667</v>
       </c>
       <c r="N13">
-        <v>18.2000231660945</v>
+        <v>54.645353</v>
       </c>
       <c r="O13">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="P13">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="Q13">
-        <v>313.7218608360213</v>
+        <v>315.2557810505367</v>
       </c>
       <c r="R13">
-        <v>313.7218608360213</v>
+        <v>2837.30202945483</v>
       </c>
       <c r="S13">
-        <v>0.1284289646450462</v>
+        <v>0.1217176298187263</v>
       </c>
       <c r="T13">
-        <v>0.1284289646450462</v>
+        <v>0.1217176298187263</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.2374429402082</v>
+        <v>17.30737</v>
       </c>
       <c r="H14">
-        <v>17.2374429402082</v>
+        <v>51.92211</v>
       </c>
       <c r="I14">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="J14">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.7638781504138</v>
+        <v>12.38338866666667</v>
       </c>
       <c r="N14">
-        <v>11.7638781504138</v>
+        <v>37.150166</v>
       </c>
       <c r="O14">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="P14">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="Q14">
-        <v>202.7791783733199</v>
+        <v>214.3238895078067</v>
       </c>
       <c r="R14">
-        <v>202.7791783733199</v>
+        <v>1928.91500557026</v>
       </c>
       <c r="S14">
-        <v>0.08301213010996017</v>
+        <v>0.08274866762947312</v>
       </c>
       <c r="T14">
-        <v>0.08301213010996017</v>
+        <v>0.0827486676294731</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.2374429402082</v>
+        <v>17.30737</v>
       </c>
       <c r="H15">
-        <v>17.2374429402082</v>
+        <v>51.92211</v>
       </c>
       <c r="I15">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="J15">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.3251294513895</v>
+        <v>11.592928</v>
       </c>
       <c r="N15">
-        <v>11.3251294513895</v>
+        <v>34.778784</v>
       </c>
       <c r="O15">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="P15">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="Q15">
-        <v>195.2162727087979</v>
+        <v>200.64309427936</v>
       </c>
       <c r="R15">
-        <v>195.2162727087979</v>
+        <v>1805.78784851424</v>
       </c>
       <c r="S15">
-        <v>0.07991608783348521</v>
+        <v>0.07746662660331685</v>
       </c>
       <c r="T15">
-        <v>0.07991608783348521</v>
+        <v>0.07746662660331685</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.2374429402082</v>
+        <v>17.30737</v>
       </c>
       <c r="H16">
-        <v>17.2374429402082</v>
+        <v>51.92211</v>
       </c>
       <c r="I16">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="J16">
-        <v>0.4682289770967105</v>
+        <v>0.4582817084933969</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.8915132055474</v>
+        <v>17.819224</v>
       </c>
       <c r="N16">
-        <v>16.8915132055474</v>
+        <v>53.457672</v>
       </c>
       <c r="O16">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="P16">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="Q16">
-        <v>291.1664950543966</v>
+        <v>308.40390288088</v>
       </c>
       <c r="R16">
-        <v>291.1664950543966</v>
+        <v>2775.635125927919</v>
       </c>
       <c r="S16">
-        <v>0.1191954280760455</v>
+        <v>0.1190721767588708</v>
       </c>
       <c r="T16">
-        <v>0.1191954280760455</v>
+        <v>0.1190721767588707</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.96593279916225</v>
+        <v>8.725819333333334</v>
       </c>
       <c r="H17">
-        <v>7.96593279916225</v>
+        <v>26.177458</v>
       </c>
       <c r="I17">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="J17">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.173477128799711</v>
+        <v>8.571479333333334</v>
       </c>
       <c r="N17">
-        <v>8.173477128799711</v>
+        <v>25.714438</v>
       </c>
       <c r="O17">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="P17">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="Q17">
-        <v>65.10936954350811</v>
+        <v>74.79318008206712</v>
       </c>
       <c r="R17">
-        <v>65.10936954350811</v>
+        <v>673.1386207386041</v>
       </c>
       <c r="S17">
-        <v>0.02665395677840611</v>
+        <v>0.02887702352628715</v>
       </c>
       <c r="T17">
-        <v>0.02665395677840611</v>
+        <v>0.02887702352628715</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.96593279916225</v>
+        <v>8.725819333333334</v>
       </c>
       <c r="H18">
-        <v>7.96593279916225</v>
+        <v>26.177458</v>
       </c>
       <c r="I18">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="J18">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>18.2000231660945</v>
+        <v>18.21511766666667</v>
       </c>
       <c r="N18">
-        <v>18.2000231660945</v>
+        <v>54.645353</v>
       </c>
       <c r="O18">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="P18">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="Q18">
-        <v>144.9801614843049</v>
+        <v>158.9418258947416</v>
       </c>
       <c r="R18">
-        <v>144.9801614843049</v>
+        <v>1430.476433052674</v>
       </c>
       <c r="S18">
-        <v>0.0593508274618872</v>
+        <v>0.06136611440558282</v>
       </c>
       <c r="T18">
-        <v>0.0593508274618872</v>
+        <v>0.0613661144055828</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.96593279916225</v>
+        <v>8.725819333333334</v>
       </c>
       <c r="H19">
-        <v>7.96593279916225</v>
+        <v>26.177458</v>
       </c>
       <c r="I19">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="J19">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.7638781504138</v>
+        <v>12.38338866666667</v>
       </c>
       <c r="N19">
-        <v>11.7638781504138</v>
+        <v>37.150166</v>
       </c>
       <c r="O19">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="P19">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="Q19">
-        <v>93.71026280372944</v>
+        <v>108.0552122397809</v>
       </c>
       <c r="R19">
-        <v>93.71026280372944</v>
+        <v>972.4969101580281</v>
       </c>
       <c r="S19">
-        <v>0.03836236338910652</v>
+        <v>0.04171921694681693</v>
       </c>
       <c r="T19">
-        <v>0.03836236338910652</v>
+        <v>0.04171921694681691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.96593279916225</v>
+        <v>8.725819333333334</v>
       </c>
       <c r="H20">
-        <v>7.96593279916225</v>
+        <v>26.177458</v>
       </c>
       <c r="I20">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="J20">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.3251294513895</v>
+        <v>11.592928</v>
       </c>
       <c r="N20">
-        <v>11.3251294513895</v>
+        <v>34.778784</v>
       </c>
       <c r="O20">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="P20">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="Q20">
-        <v>90.215220151582</v>
+        <v>101.1577952723413</v>
       </c>
       <c r="R20">
-        <v>90.215220151582</v>
+        <v>910.4201574510721</v>
       </c>
       <c r="S20">
-        <v>0.0369315905764966</v>
+        <v>0.0390561817366438</v>
       </c>
       <c r="T20">
-        <v>0.0369315905764966</v>
+        <v>0.03905618173664378</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.96593279916225</v>
+        <v>8.725819333333334</v>
       </c>
       <c r="H21">
-        <v>7.96593279916225</v>
+        <v>26.177458</v>
       </c>
       <c r="I21">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="J21">
-        <v>0.2163824750057635</v>
+        <v>0.2310508986682965</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.8915132055474</v>
+        <v>17.819224</v>
       </c>
       <c r="N21">
-        <v>16.8915132055474</v>
+        <v>53.457672</v>
       </c>
       <c r="O21">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="P21">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="Q21">
-        <v>134.5566590715523</v>
+        <v>155.4873292841973</v>
       </c>
       <c r="R21">
-        <v>134.5566590715523</v>
+        <v>1399.385963557776</v>
       </c>
       <c r="S21">
-        <v>0.05508373679986708</v>
+        <v>0.0600323620529658</v>
       </c>
       <c r="T21">
-        <v>0.05508373679986708</v>
+        <v>0.06003236205296578</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.932179935877717</v>
+        <v>0.9424899999999999</v>
       </c>
       <c r="H22">
-        <v>0.932179935877717</v>
+        <v>2.82747</v>
       </c>
       <c r="I22">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="J22">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.173477128799711</v>
+        <v>8.571479333333334</v>
       </c>
       <c r="N22">
-        <v>8.173477128799711</v>
+        <v>25.714438</v>
       </c>
       <c r="O22">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="P22">
-        <v>0.1231798313504648</v>
+        <v>0.1249812214223147</v>
       </c>
       <c r="Q22">
-        <v>7.619151385822501</v>
+        <v>8.078533556873333</v>
       </c>
       <c r="R22">
-        <v>7.619151385822501</v>
+        <v>72.70680201186001</v>
       </c>
       <c r="S22">
-        <v>0.003119067703307145</v>
+        <v>0.003119054482290494</v>
       </c>
       <c r="T22">
-        <v>0.003119067703307145</v>
+        <v>0.003119054482290493</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.932179935877717</v>
+        <v>0.9424899999999999</v>
       </c>
       <c r="H23">
-        <v>0.932179935877717</v>
+        <v>2.82747</v>
       </c>
       <c r="I23">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="J23">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.2000231660945</v>
+        <v>18.21511766666667</v>
       </c>
       <c r="N23">
-        <v>18.2000231660945</v>
+        <v>54.645353</v>
       </c>
       <c r="O23">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="P23">
-        <v>0.274286665129911</v>
+        <v>0.2655956534221571</v>
       </c>
       <c r="Q23">
-        <v>16.96569642794293</v>
+        <v>17.16756624965667</v>
       </c>
       <c r="R23">
-        <v>16.96569642794293</v>
+        <v>154.50809624691</v>
       </c>
       <c r="S23">
-        <v>0.006945282107266818</v>
+        <v>0.006628254259766294</v>
       </c>
       <c r="T23">
-        <v>0.006945282107266818</v>
+        <v>0.006628254259766292</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.932179935877717</v>
+        <v>0.9424899999999999</v>
       </c>
       <c r="H24">
-        <v>0.932179935877717</v>
+        <v>2.82747</v>
       </c>
       <c r="I24">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="J24">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.7638781504138</v>
+        <v>12.38338866666667</v>
       </c>
       <c r="N24">
-        <v>11.7638781504138</v>
+        <v>37.150166</v>
       </c>
       <c r="O24">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="P24">
-        <v>0.1772896043826318</v>
+        <v>0.1805628854389797</v>
       </c>
       <c r="Q24">
-        <v>10.96605117992601</v>
+        <v>11.67121998444667</v>
       </c>
       <c r="R24">
-        <v>10.96605117992601</v>
+        <v>105.04097986002</v>
       </c>
       <c r="S24">
-        <v>0.004489194968847317</v>
+        <v>0.004506160771630937</v>
       </c>
       <c r="T24">
-        <v>0.004489194968847317</v>
+        <v>0.004506160771630936</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.932179935877717</v>
+        <v>0.9424899999999999</v>
       </c>
       <c r="H25">
-        <v>0.932179935877717</v>
+        <v>2.82747</v>
       </c>
       <c r="I25">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="J25">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.3251294513895</v>
+        <v>11.592928</v>
       </c>
       <c r="N25">
-        <v>11.3251294513895</v>
+        <v>34.778784</v>
       </c>
       <c r="O25">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="P25">
-        <v>0.1706773645856158</v>
+        <v>0.1690371340763059</v>
       </c>
       <c r="Q25">
-        <v>10.55705844580311</v>
+        <v>10.92621871072</v>
       </c>
       <c r="R25">
-        <v>10.55705844580311</v>
+        <v>98.33596839648</v>
       </c>
       <c r="S25">
-        <v>0.004321764770483785</v>
+        <v>0.004218521988456947</v>
       </c>
       <c r="T25">
-        <v>0.004321764770483785</v>
+        <v>0.004218521988456947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.932179935877717</v>
+        <v>0.9424899999999999</v>
       </c>
       <c r="H26">
-        <v>0.932179935877717</v>
+        <v>2.82747</v>
       </c>
       <c r="I26">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="J26">
-        <v>0.02532125323692754</v>
+        <v>0.0249561849915927</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.8915132055474</v>
+        <v>17.819224</v>
       </c>
       <c r="N26">
-        <v>16.8915132055474</v>
+        <v>53.457672</v>
       </c>
       <c r="O26">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="P26">
-        <v>0.2545665345513766</v>
+        <v>0.2598231056402426</v>
       </c>
       <c r="Q26">
-        <v>15.74592969682479</v>
+        <v>16.79444042776</v>
       </c>
       <c r="R26">
-        <v>15.74592969682479</v>
+        <v>151.14996384984</v>
       </c>
       <c r="S26">
-        <v>0.006445943687022469</v>
+        <v>0.006484193489448028</v>
       </c>
       <c r="T26">
-        <v>0.006445943687022469</v>
+        <v>0.006484193489448026</v>
       </c>
     </row>
   </sheetData>
